--- a/测试.xlsx
+++ b/测试.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22245" windowHeight="12255"/>
+    <workbookView windowHeight="17700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,13 +32,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">导入模板说明：
 </t>
     </r>
@@ -53,7 +46,7 @@
       </rPr>
       <t xml:space="preserve">1.型号：1-表示山地自行车
 2.车架号：不能出现重复的车架号和已经录入系统的车架号，否则将导致导入失败
-2.X光图片：图片必须嵌入单元格中
+2.X光图片：图片不能签入单元格
 3.生产日期：需要为日期格式，例如：2025/1/20
 4.结论：只能输入通过或不通过
 5.备注：备注信息不能超过1024个字符
@@ -835,19 +828,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>8890</xdr:colOff>
+      <xdr:colOff>3175</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>6985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1780540</xdr:colOff>
+      <xdr:colOff>1774825</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1189990</xdr:rowOff>
+      <xdr:rowOff>1186180</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="100元现金钞票图片"/>
+        <xdr:cNvPr id="4" name="图片 3" descr="banner1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -860,8 +853,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4590415" y="2112645"/>
-          <a:ext cx="1771650" cy="1182370"/>
+          <a:off x="4126865" y="2094865"/>
+          <a:ext cx="1771650" cy="1179195"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -873,19 +866,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>8890</xdr:colOff>
+      <xdr:colOff>3810</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2371090</xdr:colOff>
+      <xdr:colOff>2600960</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1576705</xdr:rowOff>
+      <xdr:rowOff>1736725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="50欧元现金图片"/>
+        <xdr:cNvPr id="7" name="图片 6" descr="banner2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -898,8 +891,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4590415" y="3467100"/>
-          <a:ext cx="2362200" cy="1573530"/>
+          <a:off x="4127500" y="3450590"/>
+          <a:ext cx="2597150" cy="1732915"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -911,33 +904,33 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>8890</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>6985</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1954530</xdr:colOff>
+      <xdr:colOff>1771650</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1376045</xdr:rowOff>
+      <xdr:rowOff>1179195</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4" descr="1-1PG0222A60-L"/>
+        <xdr:cNvPr id="8" name="图片 7" descr="banner1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4590415" y="5350510"/>
-          <a:ext cx="1945640" cy="1369060"/>
+          <a:off x="4123690" y="5326380"/>
+          <a:ext cx="1771650" cy="1179195"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -949,33 +942,185 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>8890</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>6985</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1751965</xdr:colOff>
+      <xdr:colOff>2597150</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1193800</xdr:rowOff>
+      <xdr:rowOff>1732915</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5" descr="1-1Z6032154440-L"/>
+        <xdr:cNvPr id="9" name="图片 8" descr="banner2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4590415" y="7001510"/>
-          <a:ext cx="1743075" cy="1186815"/>
+          <a:off x="4123690" y="6977380"/>
+          <a:ext cx="2597150" cy="1732915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1860550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>140335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3326130</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1115695</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9" descr="banner2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5984240" y="5466715"/>
+          <a:ext cx="1465580" cy="975360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1883410</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>52705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3348990</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1028065</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10" descr="banner2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6007100" y="2140585"/>
+          <a:ext cx="1465580" cy="975360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2708275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>334010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4479925</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1513205</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11" descr="banner1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6831965" y="3780790"/>
+          <a:ext cx="1771650" cy="1179195"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2645410</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>16510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4417060</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1195705</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12" descr="banner1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6769100" y="6993890"/>
+          <a:ext cx="1771650" cy="1179195"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1239,17 +1384,17 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="36.125" customWidth="1"/>
-    <col min="3" max="3" width="48.375" customWidth="1"/>
+    <col min="2" max="2" width="36.1296296296296" customWidth="1"/>
+    <col min="3" max="3" width="73.4814814814815" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="6" max="6" width="73.375" customWidth="1"/>
+    <col min="6" max="6" width="73.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="147" customHeight="1" spans="1:1">
@@ -1257,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="18.75" spans="1:6">
+    <row r="2" ht="17.4" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1331,7 +1476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="107" customHeight="1" spans="1:6">
+    <row r="6" ht="175" customHeight="1" spans="1:6">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1369,7 +1514,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1386,7 +1531,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/测试.xlsx
+++ b/测试.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17700"/>
+    <workbookView windowWidth="26028" windowHeight="12900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -980,15 +980,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1860550</xdr:colOff>
+      <xdr:colOff>1885315</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>140335</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3326130</xdr:colOff>
+      <xdr:colOff>4285615</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1115695</xdr:rowOff>
+      <xdr:rowOff>1616710</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1005,8 +1005,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5984240" y="5466715"/>
-          <a:ext cx="1465580" cy="975360"/>
+          <a:off x="6009005" y="5339080"/>
+          <a:ext cx="2400300" cy="1604010"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1018,15 +1018,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1883410</xdr:colOff>
+      <xdr:colOff>1882775</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>52705</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3348990</xdr:colOff>
+      <xdr:colOff>3622040</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1028065</xdr:rowOff>
+      <xdr:rowOff>1210310</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1043,8 +1043,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6007100" y="2140585"/>
-          <a:ext cx="1465580" cy="975360"/>
+          <a:off x="6006465" y="2140585"/>
+          <a:ext cx="1739265" cy="1157605"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1094,15 +1094,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2645410</xdr:colOff>
+      <xdr:colOff>2654935</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>16510</xdr:rowOff>
+      <xdr:rowOff>90170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4417060</xdr:colOff>
+      <xdr:colOff>5001260</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1195705</xdr:rowOff>
+      <xdr:rowOff>1652270</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1119,8 +1119,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6769100" y="6993890"/>
-          <a:ext cx="1771650" cy="1179195"/>
+          <a:off x="6778625" y="7067550"/>
+          <a:ext cx="2346325" cy="1562100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1384,8 +1384,8 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>

--- a/测试.xlsx
+++ b/测试.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26028" windowHeight="12900"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -853,7 +853,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4126865" y="2094865"/>
+          <a:off x="4585335" y="2112010"/>
           <a:ext cx="1771650" cy="1179195"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -891,7 +891,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4127500" y="3450590"/>
+          <a:off x="4585970" y="3467735"/>
           <a:ext cx="2597150" cy="1732915"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -929,7 +929,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4123690" y="5326380"/>
+          <a:off x="4582160" y="5343525"/>
           <a:ext cx="1771650" cy="1179195"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -967,7 +967,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4123690" y="6977380"/>
+          <a:off x="4582160" y="6994525"/>
           <a:ext cx="2597150" cy="1732915"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1005,7 +1005,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6009005" y="5339080"/>
+          <a:off x="6467475" y="5356225"/>
           <a:ext cx="2400300" cy="1604010"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1043,7 +1043,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6006465" y="2140585"/>
+          <a:off x="6464935" y="2157730"/>
           <a:ext cx="1739265" cy="1157605"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1081,7 +1081,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6831965" y="3780790"/>
+          <a:off x="7290435" y="3797935"/>
           <a:ext cx="1771650" cy="1179195"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1119,7 +1119,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6778625" y="7067550"/>
+          <a:off x="7237095" y="7084695"/>
           <a:ext cx="2346325" cy="1562100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1385,16 +1385,16 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F1"/>
+      <selection activeCell="A3" sqref="A3:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="36.1296296296296" customWidth="1"/>
-    <col min="3" max="3" width="73.4814814814815" customWidth="1"/>
+    <col min="2" max="2" width="36.1333333333333" customWidth="1"/>
+    <col min="3" max="3" width="73.4833333333333" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="6" max="6" width="73.3796296296296" customWidth="1"/>
+    <col min="6" max="6" width="73.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="147" customHeight="1" spans="1:1">
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="17.4" spans="1:6">
+    <row r="2" ht="18.75" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1514,7 +1514,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1531,7 +1531,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
